--- a/1_信息技术科联系方式.xlsx
+++ b/1_信息技术科联系方式.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\mywork\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="21840" windowHeight="11925"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>唐楚杭</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -370,6 +375,10 @@
   </si>
   <si>
     <t>182-2830-8535</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓凯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -512,13 +521,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -553,6 +573,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -565,12 +588,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -612,7 +638,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -647,7 +673,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -856,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1103,6 +1129,14 @@
       <c r="C20" s="4"/>
       <c r="D20" s="10">
         <v>505420150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>18228357260</v>
       </c>
     </row>
   </sheetData>

--- a/1_信息技术科联系方式.xlsx
+++ b/1_信息技术科联系方式.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>唐楚杭</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,10 @@
   </si>
   <si>
     <t>邓凯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡良金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,10 +576,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -882,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -900,18 +904,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
@@ -1132,11 +1136,19 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B21">
         <v>18228357260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>13541627278</v>
       </c>
     </row>
   </sheetData>

--- a/1_信息技术科联系方式.xlsx
+++ b/1_信息技术科联系方式.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>唐楚杭</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,6 +384,9 @@
   <si>
     <t>蔡良金</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>375189595&lt;cccome6623@foxmail.com&gt;</t>
   </si>
 </sst>
 </file>
@@ -886,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -897,7 +900,7 @@
     <col min="2" max="2" width="21.875" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="47.25" customWidth="1"/>
     <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
@@ -1087,7 +1090,7 @@
         <v>263674281</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5">
+    <row r="17" spans="1:5" ht="16.5">
       <c r="A17" s="9" t="s">
         <v>32</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>447105358</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5">
+    <row r="18" spans="1:5" ht="16.5">
       <c r="A18" s="9" t="s">
         <v>35</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>867159793</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5">
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="9" t="s">
         <v>36</v>
       </c>
@@ -1123,7 +1126,7 @@
         <v>824592086</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="9" t="s">
         <v>44</v>
       </c>
@@ -1135,15 +1138,18 @@
         <v>505420150</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B21">
         <v>18228357260</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="11" t="s">
         <v>47</v>
       </c>

--- a/1_信息技术科联系方式.xlsx
+++ b/1_信息技术科联系方式.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$12</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>唐楚杭</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,16 +166,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>QQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>信息技</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>术科联系方式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高万娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>朱宇</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黄</t>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>轩</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>陈</t>
     </r>
     <r>
       <rPr>
@@ -186,107 +229,39 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>圣媚</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>信息技</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
+      <t>珅</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>137-0824-1029</t>
+  </si>
+  <si>
+    <t>136-5901-2276</t>
+  </si>
+  <si>
+    <t>150-8212-3832</t>
+  </si>
+  <si>
+    <t>136-8411-1860</t>
+  </si>
+  <si>
+    <t>157-7511-4731</t>
+  </si>
+  <si>
+    <t>李夷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>术科联系方式</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高万娟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>朱宇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>轩</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>陈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>珅</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>137-0824-1029</t>
-  </si>
-  <si>
-    <t>136-5901-2276</t>
-  </si>
-  <si>
-    <t>150-8212-3832</t>
-  </si>
-  <si>
-    <t>136-8411-1860</t>
-  </si>
-  <si>
-    <t>157-7511-4731</t>
-  </si>
-  <si>
-    <t>李夷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>张</t>
     </r>
     <r>
@@ -359,10 +334,6 @@
   </si>
   <si>
     <t>152-8220-8914</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>152-8220-0612</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -889,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -908,7 +879,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -931,7 +902,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5">
@@ -939,10 +910,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -951,7 +922,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="10">
@@ -963,7 +934,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="10">
@@ -975,7 +946,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="10">
@@ -984,86 +955,86 @@
     </row>
     <row r="8" spans="1:4" ht="16.5">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="10">
-        <v>2424105224</v>
+        <v>838277614</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5">
       <c r="A9" s="5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="10">
-        <v>838277614</v>
+        <v>85910787</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="10">
-        <v>85910787</v>
+        <v>731104436</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5">
-      <c r="A11" s="5" t="s">
-        <v>17</v>
+      <c r="A11" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="10">
-        <v>731104436</v>
+        <v>27175379</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5">
       <c r="A12" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="10">
-        <v>27175379</v>
+        <v>773690592</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5">
       <c r="A13" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="10">
-        <v>773690592</v>
+        <v>34692763</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5">
       <c r="A14" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="10">
-        <v>34692763</v>
+        <v>1176715742</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5">
@@ -1071,11 +1042,11 @@
         <v>30</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="10">
-        <v>1176715742</v>
+        <v>263674281</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5">
@@ -1087,19 +1058,19 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="10">
-        <v>263674281</v>
+        <v>447105358</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5">
       <c r="A17" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="10">
-        <v>447105358</v>
+        <v>867159793</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5">
@@ -1111,49 +1082,37 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="10">
-        <v>867159793</v>
+        <v>824592086</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="10">
-        <v>824592086</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5">
-      <c r="A20" s="9" t="s">
+        <v>505420150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="10">
-        <v>505420150</v>
+      <c r="B20">
+        <v>18228357260</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21">
-        <v>18228357260</v>
-      </c>
-      <c r="E21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22">
         <v>13541627278</v>
       </c>
     </row>
